--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="728" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE238030-A369-4624-ACFF-36C89CFEEA9B}"/>
+  <xr:revisionPtr revIDLastSave="807" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122CAC6E-EEDB-4DCF-AB33-B654553535D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>Round_1</t>
   </si>
@@ -72,7 +72,199 @@
     <t>Animal Engineers</t>
   </si>
   <si>
-    <t>Dad Bods</t>
+    <t>Thorold's Deer</t>
+  </si>
+  <si>
+    <t>Olympic Marmot</t>
+  </si>
+  <si>
+    <t>Gelada</t>
+  </si>
+  <si>
+    <t>Eastern Grey Kangaroo</t>
+  </si>
+  <si>
+    <t>Paca</t>
+  </si>
+  <si>
+    <t>Greater Mouse Deer</t>
+  </si>
+  <si>
+    <t>Coati</t>
+  </si>
+  <si>
+    <t>Fig-eating Bat</t>
+  </si>
+  <si>
+    <t>Sun Bear</t>
+  </si>
+  <si>
+    <t>Aardvark</t>
+  </si>
+  <si>
+    <t>Bandicoot</t>
+  </si>
+  <si>
+    <t>Hedgehog</t>
+  </si>
+  <si>
+    <t>Greater Glider</t>
+  </si>
+  <si>
+    <t>Paradise Flying Snake</t>
+  </si>
+  <si>
+    <t>Sundra Colugo</t>
+  </si>
+  <si>
+    <t>Northern Flying Squirrel</t>
+  </si>
+  <si>
+    <t>Flying Frog</t>
+  </si>
+  <si>
+    <t>Addax</t>
+  </si>
+  <si>
+    <t>Grant's Golden Mole</t>
+  </si>
+  <si>
+    <t>Spotted-necked Otter</t>
+  </si>
+  <si>
+    <t>Tayra</t>
+  </si>
+  <si>
+    <t>Maned Wolf</t>
+  </si>
+  <si>
+    <t>Common Muskrat</t>
+  </si>
+  <si>
+    <t>Chacoan Peccary</t>
+  </si>
+  <si>
+    <t>Mountain Beaver</t>
+  </si>
+  <si>
+    <t>Marsh Mongoose</t>
+  </si>
+  <si>
+    <t>Quokka</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>Star-nosed Mole</t>
+  </si>
+  <si>
+    <t>Indri</t>
+  </si>
+  <si>
+    <t>Hispid Hare</t>
+  </si>
+  <si>
+    <t>Saiga</t>
+  </si>
+  <si>
+    <t>Woolly Giant Rat</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Eurasian Water Shrew</t>
+  </si>
+  <si>
+    <t>Tasmanian Devil</t>
+  </si>
+  <si>
+    <t>Delacour's Langur</t>
+  </si>
+  <si>
+    <t>Malayan Tapir</t>
+  </si>
+  <si>
+    <t>Luzon Giant Cloud Rat</t>
+  </si>
+  <si>
+    <t>Cape Buffalo</t>
+  </si>
+  <si>
+    <t>Moonrat</t>
+  </si>
+  <si>
+    <t>Ribbon Seal</t>
+  </si>
+  <si>
+    <t>Southern Tamandua</t>
+  </si>
+  <si>
+    <t>Narwhal</t>
+  </si>
+  <si>
+    <t>Eastern Spotted Skunk</t>
+  </si>
+  <si>
+    <t>Mountain Zebra</t>
+  </si>
+  <si>
+    <t>White-faced Capuchin</t>
+  </si>
+  <si>
+    <t>Wild Yak</t>
+  </si>
+  <si>
+    <t>Zorilla</t>
+  </si>
+  <si>
+    <t>Ginkgo</t>
+  </si>
+  <si>
+    <t>Mycorrhizal Fungus</t>
+  </si>
+  <si>
+    <t>Asian Forest Tortoise</t>
+  </si>
+  <si>
+    <t>Platypus</t>
+  </si>
+  <si>
+    <t>Salmaa Ringed Seal</t>
+  </si>
+  <si>
+    <t>Olm</t>
+  </si>
+  <si>
+    <t>Coelacanth</t>
+  </si>
+  <si>
+    <t>Mudskipper</t>
+  </si>
+  <si>
+    <t>Pelican</t>
+  </si>
+  <si>
+    <t>Horseshoe Crab</t>
+  </si>
+  <si>
+    <t>Alligator Gar</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Starry Sturgeon</t>
+  </si>
+  <si>
+    <t>Tuatara</t>
+  </si>
+  <si>
+    <t>Frilled Shark</t>
+  </si>
+  <si>
+    <t>Fern</t>
   </si>
 </sst>
 </file>
@@ -446,7 +638,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,10 +691,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="Q2">
         <v>1</v>
       </c>
@@ -514,10 +710,14 @@
       <c r="C3">
         <v>16</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="Q3">
         <v>16</v>
       </c>
@@ -526,10 +726,14 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="Q4">
         <v>8</v>
       </c>
@@ -538,10 +742,14 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="Q5">
         <v>9</v>
       </c>
@@ -550,10 +758,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="Q6">
         <v>5</v>
       </c>
@@ -562,10 +774,14 @@
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="Q7">
         <v>12</v>
       </c>
@@ -574,11 +790,15 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="H8" s="1"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="Q8">
         <v>4</v>
       </c>
@@ -587,109 +807,143 @@
       <c r="C9">
         <v>13</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="Q9">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="Q10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="Q11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="4"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="Q13">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="Q14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="Q15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Q16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="Q17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -699,34 +953,43 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="J19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="Q19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C20">
         <v>16</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="Q20">
         <v>16</v>
       </c>
@@ -735,10 +998,14 @@
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="Q21">
         <v>8</v>
       </c>
@@ -747,10 +1014,14 @@
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="Q22">
         <v>9</v>
       </c>
@@ -759,10 +1030,14 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="Q23">
         <v>5</v>
       </c>
@@ -771,10 +1046,14 @@
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="Q24">
         <v>12</v>
       </c>
@@ -783,10 +1062,14 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="Q25">
         <v>4</v>
       </c>
@@ -795,107 +1078,143 @@
       <c r="C26">
         <v>13</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="Q26">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="Q27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="P28" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="P29" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="Q29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>14</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="K30" s="2"/>
       <c r="M30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="P30" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="Q30">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="Q31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="Q32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="P33" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="Q33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="P34" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="807" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122CAC6E-EEDB-4DCF-AB33-B654553535D0}"/>
+  <xr:revisionPtr revIDLastSave="809" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DF1722-1B3A-42AD-92CA-51CE1933DF89}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="1770" yWindow="1215" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Round_1</t>
   </si>
@@ -638,7 +638,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,9 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="K17" s="3"/>
       <c r="P17" s="3" t="s">
@@ -958,7 +960,9 @@
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C19">
         <v>1</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="809" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DF1722-1B3A-42AD-92CA-51CE1933DF89}"/>
+  <xr:revisionPtr revIDLastSave="817" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB2A1B18-BEDD-49FE-A13A-C36B886DE620}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1215" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="1365" yWindow="1590" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Round_1</t>
   </si>
@@ -336,6 +336,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -969,7 +973,9 @@
       <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
@@ -1005,7 +1011,9 @@
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
         <v>63</v>
@@ -1037,7 +1045,9 @@
       <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
         <v>65</v>
@@ -1069,7 +1079,9 @@
       <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
         <v>67</v>
@@ -1101,7 +1113,9 @@
       <c r="D27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
         <v>69</v>
@@ -1133,7 +1147,9 @@
       <c r="D29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
         <v>71</v>
@@ -1166,7 +1182,9 @@
       <c r="D31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
         <v>73</v>
@@ -1198,7 +1216,9 @@
       <c r="D33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
         <v>75</v>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="817" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB2A1B18-BEDD-49FE-A13A-C36B886DE620}"/>
+  <xr:revisionPtr revIDLastSave="828" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36334FD6-D380-498E-B906-F4608F0A1A5A}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1590" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="4395" yWindow="1335" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>Round_1</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>Fern</t>
+  </si>
+  <si>
+    <t>GinkoRhizo</t>
+  </si>
+  <si>
+    <t>Ceolacanth</t>
+  </si>
+  <si>
+    <t>Saimaa Ringed Seal</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -977,7 +986,9 @@
         <v>29</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="P19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1014,7 +1025,9 @@
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="P21" s="3" t="s">
         <v>63</v>
       </c>
@@ -1048,7 +1061,9 @@
       <c r="E23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="P23" s="3" t="s">
         <v>65</v>
       </c>
@@ -1082,7 +1097,9 @@
       <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="P25" s="3" t="s">
         <v>67</v>
       </c>
@@ -1116,7 +1133,9 @@
       <c r="E27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O27" s="3"/>
+      <c r="O27" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="P27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1150,7 +1169,9 @@
       <c r="E29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="3"/>
+      <c r="O29" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P29" s="3" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1206,9 @@
       <c r="E31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="3"/>
+      <c r="O31" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="P31" s="3" t="s">
         <v>73</v>
       </c>
@@ -1219,7 +1242,9 @@
       <c r="E33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="3"/>
+      <c r="O33" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="P33" s="3" t="s">
         <v>75</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="828" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36334FD6-D380-498E-B906-F4608F0A1A5A}"/>
+  <xr:revisionPtr revIDLastSave="830" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E9AC8B8-68DE-4B98-9BE3-6F85A960E74D}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="1335" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="-25560" yWindow="1440" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Saimaa Ringed Seal</t>
+  </si>
+  <si>
+    <t>Asain Forest Tortoise</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1029,7 @@
         <v>31</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>63</v>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/njw179_newcastle_ac_uk/Documents/MMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="830" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E9AC8B8-68DE-4B98-9BE3-6F85A960E74D}"/>
+  <xr:revisionPtr revIDLastSave="838" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D76453-7F4A-4836-8812-0ABEDB806078}"/>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="1440" windowWidth="26730" windowHeight="12345" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -348,10 +348,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA7A126-1676-F548-AFF2-D58DA2E40C88}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -710,7 +706,9 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
         <v>45</v>
@@ -745,7 +743,9 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3" t="s">
         <v>47</v>
@@ -777,7 +777,9 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
         <v>49</v>
@@ -809,7 +811,9 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
@@ -842,7 +846,9 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
         <v>53</v>
@@ -874,7 +880,9 @@
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
         <v>55</v>
@@ -907,7 +915,9 @@
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
         <v>57</v>
@@ -939,7 +949,9 @@
       <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
         <v>59</v>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="838" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D76453-7F4A-4836-8812-0ABEDB806078}"/>
+  <xr:revisionPtr revIDLastSave="846" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896943A0-0173-4730-A083-1C2F085A4FE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,9 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="P2" s="3" t="s">
         <v>45</v>
       </c>
@@ -746,7 +748,9 @@
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="P4" s="3" t="s">
         <v>47</v>
       </c>
@@ -780,7 +784,9 @@
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="P6" s="3" t="s">
         <v>49</v>
       </c>
@@ -815,7 +821,9 @@
         <v>18</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
@@ -849,7 +857,9 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" s="3" t="s">
         <v>53</v>
       </c>
@@ -883,7 +893,9 @@
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="P12" s="3" t="s">
         <v>55</v>
       </c>
@@ -918,7 +930,9 @@
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="P14" s="3" t="s">
         <v>57</v>
       </c>
@@ -952,7 +966,9 @@
       <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="P16" s="3" t="s">
         <v>59</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896943A0-0173-4730-A083-1C2F085A4FE9}"/>
+  <xr:revisionPtr revIDLastSave="855" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48346A74-01DD-4984-8EEF-B6FCA48262E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Fern</t>
   </si>
   <si>
-    <t>GinkoRhizo</t>
-  </si>
-  <si>
     <t>Ceolacanth</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>Asain Forest Tortoise</t>
+  </si>
+  <si>
+    <t>GinkgoRhizo</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="J19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>61</v>
@@ -1037,8 +1037,12 @@
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P20" s="3" t="s">
         <v>62</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>63</v>
@@ -1093,7 +1097,7 @@
         <v>33</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>65</v>
@@ -1109,8 +1113,12 @@
       <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="P24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>35</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>67</v>
@@ -1181,8 +1189,12 @@
       <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P28" s="3" t="s">
         <v>70</v>
       </c>
@@ -1254,8 +1266,12 @@
       <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="P32" s="3" t="s">
         <v>74</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="855" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48346A74-01DD-4984-8EEF-B6FCA48262E5}"/>
+  <xr:revisionPtr revIDLastSave="863" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DDB8DA-8C16-4750-8A0E-4E8193E52900}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,8 +729,12 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="P3" s="3" t="s">
         <v>46</v>
       </c>
@@ -801,8 +805,12 @@
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
@@ -874,8 +882,12 @@
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="P11" s="3" t="s">
         <v>54</v>
       </c>
@@ -947,8 +959,12 @@
       <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="P15" s="3" t="s">
         <v>58</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="863" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DDB8DA-8C16-4750-8A0E-4E8193E52900}"/>
+  <xr:revisionPtr revIDLastSave="871" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{051948B9-EAC9-4A68-A1FA-BAE8A702E323}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -769,8 +769,12 @@
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="P5" s="3" t="s">
         <v>48</v>
       </c>
@@ -922,7 +926,9 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4"/>
       <c r="P13" s="3" t="s">
@@ -942,6 +948,9 @@
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="O14" s="3" t="s">
         <v>57</v>
       </c>
@@ -1093,8 +1102,12 @@
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P22" s="3" t="s">
         <v>64</v>
       </c>
@@ -1245,9 +1258,13 @@
       <c r="D30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K30" s="2"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P30" s="3" t="s">
         <v>72</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="871" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{051948B9-EAC9-4A68-A1FA-BAE8A702E323}"/>
+  <xr:revisionPtr revIDLastSave="881" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C9BAAF-14F0-4877-94B9-4FDCA5F629EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -850,8 +850,12 @@
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="P9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1182,8 +1186,12 @@
       <c r="D26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P26" s="3" t="s">
         <v>68</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="881" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C9BAAF-14F0-4877-94B9-4FDCA5F629EA}"/>
+  <xr:revisionPtr revIDLastSave="883" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DECFD17-F10E-4375-97B7-582392CF8C48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1012,8 +1012,12 @@
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="P17" s="3" t="s">
         <v>60</v>
       </c>

--- a/2025_results.xlsx
+++ b/2025_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/nbr37_newcastle_ac_uk/Documents/MEP and Teaching/MMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="883" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DECFD17-F10E-4375-97B7-582392CF8C48}"/>
+  <xr:revisionPtr revIDLastSave="884" documentId="8_{112114C6-7F5F-4BD2-B7B9-FFD9C9F22994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB458C11-4FAC-4582-B322-4B9F7D7BB257}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3E5A4F85-4087-E24D-A3B4-5C3AA07B2567}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>Round_1</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1049,9 @@
       <c r="E19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="O19" s="3" t="s">
         <v>80</v>
       </c>
